--- a/data/trans_bre/P25_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,14%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,6</t>
+          <t>-1,98; 5,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,66</t>
+          <t>-1,68; 5,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 6,01</t>
+          <t>-1,5; 5,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,75</t>
+          <t>-1,92; 7,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 46,96</t>
+          <t>-3,67; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 48,2</t>
+          <t>0,72; 8,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 50,78</t>
+          <t>-12,6; 47,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 29,0</t>
+          <t>-10,66; 46,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 48,45</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,13; 50,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-18,21; 30,31</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 63,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,65%</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,66%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>-14,28%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-14,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 2,23</t>
+          <t>-6,86; 2,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,83</t>
+          <t>-6,48; 1,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 1,66</t>
+          <t>-6,46; 1,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,71</t>
+          <t>-8,44; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 20,26</t>
+          <t>-3,49; 11,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 16,62</t>
+          <t>-7,27; 8,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 13,78</t>
+          <t>-42,1; 23,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 81,67</t>
+          <t>-36,71; 14,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,58; 15,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 12,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 80,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; 50,0</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,49%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>184,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>180,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 10,54</t>
+          <t>-5,47; 11,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 17,19</t>
+          <t>3,94; 17,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 11,01</t>
+          <t>-5,5; 11,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-9,41; 12,53</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-46,12; 127,12</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,52; 553,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 114,73</t>
+          <t>-34,45; 152,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32,77; 517,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 116,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-46,47; 126,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,89</t>
+          <t>-2,56; 3,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,94</t>
+          <t>-1,19; 3,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,03</t>
+          <t>-2,2; 3,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,67</t>
+          <t>-2,7; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 23,55</t>
+          <t>-2,92; 4,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 33,58</t>
+          <t>0,03; 7,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 23,75</t>
+          <t>-16,45; 28,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 28,39</t>
+          <t>-8,5; 30,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,53; 24,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 23,89</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 27,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 48,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>18,29%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>29,69%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.772571915972179</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.722410461362031</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.129110889402439</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.018184699950285</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.43210349136594</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.418286817471059</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1278090392971848</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.127615880771555</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1534521566542459</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1722465971454198</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.02381645976821023</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.2948061133531268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 5,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 5,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 5,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 7,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 4,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 8,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 47,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; 46,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 48,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 50,68</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 30,31</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 63,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.404669006067244</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.740622201938066</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.739099195669988</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.15425554023583</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.667431282871562</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.6944151851476191</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1504261915055116</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1121887300008021</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1117747461701568</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1074449223161556</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1821136190893847</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.03683282030044981</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.390856566704759</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.48248305836622</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.684120561647854</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.610849939859539</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.955058065819269</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.082743888625913</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4551410062888171</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4622945946888286</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4688991332221202</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5017738935238725</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3031345210748184</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6276541809217968</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-14,28%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-15,54%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-14,01%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,72%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 2,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 1,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 1,9</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 2,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 11,33</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 8,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-42,1; 23,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,71; 14,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,58; 15,05</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-36,49; 12,97</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 80,54</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-30,12; 50,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.6300562693897505</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.866746073853179</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.179533631128896</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.546856803426869</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.982830631809311</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1981466948877297</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.04772200201358503</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1263471625453444</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1474123073975142</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1262255510195595</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1771669076824934</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.009387447478549945</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>25,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>180,03%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,42%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.692048594050445</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.151155245667981</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.099231775343473</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.115399137220191</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.487082762238251</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.328865904044118</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3661957588546996</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3468104975272593</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3552522784922335</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3543120686912425</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1917100467979917</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3028083381323734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 11,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 17,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 11,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 12,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,45; 152,8</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>32,77; 517,83</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-30,13; 116,46</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-46,47; 126,06</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.034527376585229</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.143406773479279</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.886794450109631</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.711848829349649</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.3298259878418</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.747875089182006</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3835314163382214</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1873705691906138</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1548807179447338</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1481898308708915</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8053739654428189</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4905625784188871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,97%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>20,78%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.731864208361125</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.33321519842767</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.30418353539409</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6178154230754018</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1342870446434811</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.872439620006247</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2386994419812377</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.03899232979013283</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 3,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 3,16</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 4,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 4,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 7,18</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; 28,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 30,9</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 24,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 23,89</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-14,48; 27,1</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 48,6</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.95462232878366</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4.03213879078412</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.633602300316167</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.234418143207934</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4768120970028019</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.3779689971594567</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2692397999568711</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4664744445177472</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.60793013598661</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.35544701710333</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.88222200472317</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.42037980073098</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.339413639991127</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.241699175600091</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.238772157150389</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.273874694448291</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.8537943744682697</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.384038625591014</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5975867513608207</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5791656137517975</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.010933139406658</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>3.354093727081156</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0633199312245435</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1062292281094148</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04198039446087994</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.03150791834688809</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.05669253822586637</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.2036245104943922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.093757508601666</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.119337335274546</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.068323702029891</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.641508924194709</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.917288173894248</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.01830469372771557</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1401048225061342</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07983128863712129</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1341090698656928</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1292703332614923</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1448219777281012</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.002095242594369882</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.803221586613264</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.809299574400316</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.180790034291222</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.155205084442587</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.33339789919711</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.067433765553393</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3197554298586015</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3217930402814881</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2477014207391223</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2538826998301909</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2709755706525859</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4807763642904789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
